--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QA Engineering\Manual Testing Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266FE71-159A-485B-9D5A-1F4CA4F7D094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5574AAE-ADF4-4622-B2DB-6E3DA4234714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -224,15 +224,34 @@
   <si>
     <t>https://academybugs.com/my-bookings/</t>
   </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button does not work </t>
+  </si>
+  <si>
+    <t>Nothing happens when clicking on the button</t>
+  </si>
+  <si>
+    <t>1. User goes to opportunities-we-provide page.
+2. Tap Apply Now Button</t>
+  </si>
+  <si>
+    <t>To see an appropriate page after clicking on the button</t>
+  </si>
+  <si>
+    <t>https://academybugs.com/opportunities-we-provide/#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +306,13 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -314,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -411,92 +437,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -504,13 +541,728 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,6 +1273,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C960D810-652C-402C-8648-E38A0C9E9B4B}" name="Table3" displayName="Table3" ref="A1:K11" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="22">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7FFBE51F-983B-4D0B-8FE5-716C6C8DAFA7}" name="Column1" headerRowDxfId="0" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E0C82E95-923C-413E-8911-3ACA1FDABF9A}" name="Column2" headerRowDxfId="1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1D398EE1-288B-415A-8406-0A27896EECC0}" name="Column3" headerRowDxfId="2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{6F9BA2C0-8964-4DD2-8BAD-1958A9FE87E2}" name="Column4" headerRowDxfId="3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{6CFDFCA9-9D66-42D9-AD6D-689BD2DF4AD9}" name="Column5" headerRowDxfId="4" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{2C78A2D9-4520-435E-8327-E63789F70E1D}" name="Column6" headerRowDxfId="5" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{AC2B71B2-F3A2-445B-A06E-05D62C757F5C}" name="Column7" headerRowDxfId="6" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6597D21E-77EC-4816-A059-7F4ABBFA6B39}" name="Column8" headerRowDxfId="7" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{70485A5A-6CBF-420E-B13A-8616BB276581}" name="Column9" headerRowDxfId="8" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{78D7DDE7-9CA6-4C34-94BB-9B6667FC7351}" name="Column10" headerRowDxfId="9" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{C27834ED-4790-4797-85B7-F9DDC47337CB}" name="Column11" headerRowDxfId="10" dataDxfId="11" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -800,7 +1571,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="20.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="12.26953125" customWidth="1"/>
     <col min="10" max="10" width="16.90625" customWidth="1"/>
@@ -1078,31 +1849,75 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
+    <row r="10" spans="1:11" ht="159" customHeight="1">
+      <c r="A10" s="30">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
+    <row r="11" spans="1:11" ht="148.5">
+      <c r="A11" s="30">
+        <v>7</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
@@ -1131,18 +1946,18 @@
       <c r="K13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1" xr:uid="{C7C0034B-FD68-4534-9BF3-9E71E939A606}"/>
     <hyperlink ref="K7" r:id="rId2" xr:uid="{6DB9DA11-DEBF-47FF-863C-CF8F06CB4C1E}"/>
     <hyperlink ref="K8" r:id="rId3" xr:uid="{AF81589D-C65D-450D-BF0D-B28A21F48DCC}"/>
     <hyperlink ref="K9" r:id="rId4" xr:uid="{E55DD225-8FE7-4C16-BB74-643974414977}"/>
     <hyperlink ref="K5" r:id="rId5" xr:uid="{C168059C-C5FC-4CE2-9AC1-DE26067A37D9}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{FF37AA7A-6003-42DE-ABCE-0AD8C7C567B4}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{133BAB11-45E5-4F3A-95CD-AB42FBA0C983}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QA Engineering\Manual Testing Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5574AAE-ADF4-4622-B2DB-6E3DA4234714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA31E2A-01A6-4C66-BC65-0C51EFFAA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>Project Name</t>
   </si>
@@ -243,6 +243,80 @@
   <si>
     <t>https://academybugs.com/opportunities-we-provide/#</t>
   </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>image is broken</t>
+  </si>
+  <si>
+    <t>The last article's image is broken</t>
+  </si>
+  <si>
+    <t>1. User goes to articles page.
+2.Scroll down</t>
+  </si>
+  <si>
+    <t>To see the last articles's image</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Some articles  are not translated</t>
+  </si>
+  <si>
+    <t>Some parts of the page are not translated</t>
+  </si>
+  <si>
+    <t>1. User goes to frequently-asked-questions page.
+2. Scroll down</t>
+  </si>
+  <si>
+    <t>To see the page in English</t>
+  </si>
+  <si>
+    <t>https://academybugs.com/frequently-asked-questions/</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>loads infinitely</t>
+  </si>
+  <si>
+    <t>The page loads infinitely</t>
+  </si>
+  <si>
+    <t>1. User goes to request-a-quote page.
+2. Scroll down</t>
+  </si>
+  <si>
+    <t>The page loads in a timely manner</t>
+  </si>
+  <si>
+    <t>https://academybugs.com/request-a-quote/</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>the links and buttons not responsive</t>
+  </si>
+  <si>
+    <t>The entire page including the links and buttons become unresponsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User goes to what-we-offer page.
+2. Scroll down
+5. Insert Name              </t>
+  </si>
+  <si>
+    <t>The second page opens as expected</t>
+  </si>
+  <si>
+    <t>https://academybugs.com/what-we-offer/#</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,13 +344,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -310,6 +377,40 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -453,87 +554,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -542,26 +640,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -569,6 +688,445 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -592,18 +1150,121 @@
           <bgColor rgb="FFC8C8C8"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -645,7 +1306,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -654,26 +1315,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color indexed="8"/>
-        <name val="Calibri"/>
+        <name val="Verdana"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -699,109 +1360,7 @@
           <bgColor rgb="FFC8C8C8"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -810,449 +1369,9 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1276,19 +1395,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C960D810-652C-402C-8648-E38A0C9E9B4B}" name="Table3" displayName="Table3" ref="A1:K11" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C960D810-652C-402C-8648-E38A0C9E9B4B}" name="Table3" displayName="Table3" ref="A1:K14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7FFBE51F-983B-4D0B-8FE5-716C6C8DAFA7}" name="Column1" headerRowDxfId="0" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E0C82E95-923C-413E-8911-3ACA1FDABF9A}" name="Column2" headerRowDxfId="1" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1D398EE1-288B-415A-8406-0A27896EECC0}" name="Column3" headerRowDxfId="2" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{6F9BA2C0-8964-4DD2-8BAD-1958A9FE87E2}" name="Column4" headerRowDxfId="3" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{6CFDFCA9-9D66-42D9-AD6D-689BD2DF4AD9}" name="Column5" headerRowDxfId="4" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{2C78A2D9-4520-435E-8327-E63789F70E1D}" name="Column6" headerRowDxfId="5" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{AC2B71B2-F3A2-445B-A06E-05D62C757F5C}" name="Column7" headerRowDxfId="6" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{6597D21E-77EC-4816-A059-7F4ABBFA6B39}" name="Column8" headerRowDxfId="7" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{70485A5A-6CBF-420E-B13A-8616BB276581}" name="Column9" headerRowDxfId="8" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{78D7DDE7-9CA6-4C34-94BB-9B6667FC7351}" name="Column10" headerRowDxfId="9" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{C27834ED-4790-4797-85B7-F9DDC47337CB}" name="Column11" headerRowDxfId="10" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{7FFBE51F-983B-4D0B-8FE5-716C6C8DAFA7}" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E0C82E95-923C-413E-8911-3ACA1FDABF9A}" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{1D398EE1-288B-415A-8406-0A27896EECC0}" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6F9BA2C0-8964-4DD2-8BAD-1958A9FE87E2}" name="Column4" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6CFDFCA9-9D66-42D9-AD6D-689BD2DF4AD9}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2C78A2D9-4520-435E-8327-E63789F70E1D}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{AC2B71B2-F3A2-445B-A06E-05D62C757F5C}" name="Column7" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{6597D21E-77EC-4816-A059-7F4ABBFA6B39}" name="Column8" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{70485A5A-6CBF-420E-B13A-8616BB276581}" name="Column9" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{78D7DDE7-9CA6-4C34-94BB-9B6667FC7351}" name="Column10" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{C27834ED-4790-4797-85B7-F9DDC47337CB}" name="Column11" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1557,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1579,65 +1698,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15.5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="15.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="27">
+      <c r="B3" s="21"/>
+      <c r="C3" s="26">
         <v>45966</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="27">
       <c r="A4" s="4" t="s">
@@ -1687,7 +1806,7 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1705,7 +1824,7 @@
       <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1722,7 +1841,7 @@
       <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1731,16 +1850,16 @@
       <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1757,7 +1876,7 @@
       <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1766,16 +1885,16 @@
       <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1792,7 +1911,7 @@
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1804,17 +1923,17 @@
       <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="148.5">
+    <row r="9" spans="1:11" ht="159.5" customHeight="1">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1827,7 +1946,7 @@
       <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1839,111 +1958,190 @@
       <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="159" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="148.5">
-      <c r="A11" s="30">
+    <row r="11" spans="1:11" ht="58">
+      <c r="A11" s="29">
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="B11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A12" s="29">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="54">
+      <c r="A13" s="36">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="101.5">
+      <c r="A14" s="36">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
+      <c r="I14" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1954,10 +2152,14 @@
     <hyperlink ref="K5" r:id="rId5" xr:uid="{C168059C-C5FC-4CE2-9AC1-DE26067A37D9}"/>
     <hyperlink ref="K10" r:id="rId6" xr:uid="{FF37AA7A-6003-42DE-ABCE-0AD8C7C567B4}"/>
     <hyperlink ref="K11" r:id="rId7" xr:uid="{133BAB11-45E5-4F3A-95CD-AB42FBA0C983}"/>
+    <hyperlink ref="K12" r:id="rId8" xr:uid="{F525C1AB-CA5B-456A-A158-2FC368BA3EBB}"/>
+    <hyperlink ref="K13" r:id="rId9" xr:uid="{D2F85689-3411-4E6B-9324-05E97F75E485}"/>
+    <hyperlink ref="K14" r:id="rId10" xr:uid="{3AB4AB12-E29B-4BCB-9212-7CE3E49129F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>